--- a/attendance-files/SM-II/SM-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="166">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -975,6 +975,9 @@
     <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="21" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -987,9 +990,6 @@
     </xf>
     <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="27">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1641,40 +1641,46 @@
       <c r="M7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
+      <c r="N7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="31">
+      <c r="A8" s="32">
         <f t="shared" ref="A8:A95" si="1">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="34">
-        <v>6.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>9.0</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1685,7 +1691,7 @@
       <c r="I8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="28" t="s">
@@ -1697,9 +1703,15 @@
       <c r="M8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
+      <c r="N8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="36"/>
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
@@ -1713,14 +1725,14 @@
       <c r="AA8" s="36"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31">
+      <c r="A9" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -1730,8 +1742,8 @@
         <f t="shared" ref="E9:E10" si="2">IF(D9&gt;0,COUNTIF(G9:Z9,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F9" s="34">
-        <v>7.0</v>
+      <c r="F9" s="35">
+        <v>10.0</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1754,9 +1766,15 @@
       <c r="M9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="N9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
@@ -1770,14 +1788,14 @@
       <c r="AA9" s="36"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31">
+      <c r="A10" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -1787,8 +1805,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="34">
-        <v>7.0</v>
+      <c r="F10" s="35">
+        <v>10.0</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1811,9 +1829,15 @@
       <c r="M10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="N10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
@@ -1827,14 +1851,14 @@
       <c r="AA10" s="36"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="31">
+      <c r="A11" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -1843,8 +1867,8 @@
       <c r="E11" s="26">
         <v>2.0</v>
       </c>
-      <c r="F11" s="34">
-        <v>5.0</v>
+      <c r="F11" s="35">
+        <v>8.0</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1861,15 +1885,21 @@
       <c r="K11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
+      <c r="L11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="36"/>
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
@@ -1883,24 +1913,24 @@
       <c r="AA11" s="36"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="31">
+      <c r="A12" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="34">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>8.0</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1917,15 +1947,21 @@
       <c r="K12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
+      <c r="N12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
@@ -1939,24 +1975,24 @@
       <c r="AA12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F13" s="34">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>7.0</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1973,15 +2009,21 @@
       <c r="K13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
+      <c r="L13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
@@ -1995,14 +2037,14 @@
       <c r="AA13" s="36"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31">
+      <c r="A14" s="32">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -2011,8 +2053,8 @@
       <c r="E14" s="26">
         <v>2.0</v>
       </c>
-      <c r="F14" s="34">
-        <v>5.0</v>
+      <c r="F14" s="35">
+        <v>8.0</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2029,15 +2071,21 @@
       <c r="K14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
+      <c r="L14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="36"/>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
@@ -2051,29 +2099,29 @@
       <c r="AA14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31">
+      <c r="A15" s="32">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="34">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>7.0</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="28" t="s">
@@ -2088,12 +2136,18 @@
       <c r="L15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
+      <c r="M15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
@@ -2107,14 +2161,14 @@
       <c r="AA15" s="36"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31">
+      <c r="A16" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -2124,8 +2178,8 @@
         <f>IF(D16&gt;0,COUNTIF(G16:Z16,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F16" s="34">
-        <v>7.0</v>
+      <c r="F16" s="35">
+        <v>10.0</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2148,9 +2202,15 @@
       <c r="M16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="N16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
@@ -2164,14 +2224,14 @@
       <c r="AA16" s="36"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31">
+      <c r="A17" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -2180,10 +2240,10 @@
       <c r="E17" s="26">
         <v>4.0</v>
       </c>
-      <c r="F17" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="28" t="s">
@@ -2192,21 +2252,27 @@
       <c r="I17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
+      <c r="L17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
@@ -2220,14 +2286,14 @@
       <c r="AA17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31">
+      <c r="A18" s="32">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -2236,19 +2302,19 @@
       <c r="E18" s="26">
         <v>2.0</v>
       </c>
-      <c r="F18" s="34">
-        <v>5.0</v>
+      <c r="F18" s="35">
+        <v>8.0</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K18" s="28" t="s">
@@ -2260,9 +2326,15 @@
       <c r="M18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
+      <c r="N18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
@@ -2276,29 +2348,29 @@
       <c r="AA18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="31">
+      <c r="A19" s="32">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F19" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="35" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="28" t="s">
@@ -2316,9 +2388,15 @@
       <c r="M19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
+      <c r="N19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
@@ -2332,14 +2410,14 @@
       <c r="AA19" s="36"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31">
+      <c r="A20" s="32">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="25" t="s">
@@ -2348,13 +2426,13 @@
       <c r="E20" s="26">
         <v>2.0</v>
       </c>
-      <c r="F20" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="35" t="s">
+      <c r="F20" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="28" t="s">
@@ -2372,9 +2450,15 @@
       <c r="M20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="N20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
@@ -2388,38 +2472,38 @@
       <c r="AA20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="31">
+      <c r="A21" s="32">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="F21" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="35" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="28" t="s">
@@ -2428,9 +2512,15 @@
       <c r="M21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="N21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
@@ -2444,24 +2534,24 @@
       <c r="AA21" s="36"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31">
+      <c r="A22" s="32">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="34">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="35">
+        <v>8.0</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2469,7 +2559,7 @@
       <c r="H22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J22" s="28" t="s">
@@ -2484,9 +2574,15 @@
       <c r="M22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+      <c r="N22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
@@ -2500,29 +2596,29 @@
       <c r="AA22" s="36"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="31">
+      <c r="A23" s="32">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="34">
         <v>4.0</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="35" t="s">
+      <c r="F23" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="28" t="s">
@@ -2537,12 +2633,18 @@
       <c r="L23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
+      <c r="M23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="36"/>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
@@ -2556,14 +2658,14 @@
       <c r="AA23" s="36"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="31">
+      <c r="A24" s="32">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -2572,8 +2674,8 @@
       <c r="E24" s="26">
         <v>3.0</v>
       </c>
-      <c r="F24" s="34">
-        <v>4.0</v>
+      <c r="F24" s="35">
+        <v>7.0</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2584,21 +2686,27 @@
       <c r="I24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
+      <c r="L24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="36"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
@@ -2612,26 +2720,26 @@
       <c r="AA24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="31">
+      <c r="A25" s="32">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G25" s="35" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="28" t="s">
@@ -2649,12 +2757,18 @@
       <c r="L25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="M25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q25" s="36"/>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
@@ -2668,14 +2782,14 @@
       <c r="AA25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -2684,8 +2798,8 @@
       <c r="E26" s="26">
         <v>2.0</v>
       </c>
-      <c r="F26" s="34">
-        <v>5.0</v>
+      <c r="F26" s="35">
+        <v>8.0</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2693,7 +2807,7 @@
       <c r="H26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J26" s="28" t="s">
@@ -2705,12 +2819,18 @@
       <c r="L26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="M26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="36"/>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
@@ -2724,14 +2844,14 @@
       <c r="AA26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="31">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="32">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -2740,13 +2860,13 @@
       <c r="E27" s="26">
         <v>2.0</v>
       </c>
-      <c r="F27" s="34">
-        <v>5.0</v>
+      <c r="F27" s="35">
+        <v>8.0</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="28" t="s">
@@ -2761,12 +2881,18 @@
       <c r="L27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
+      <c r="M27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="36"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
@@ -2780,14 +2906,14 @@
       <c r="AA27" s="36"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="31">
+      <c r="A28" s="32">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="34" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -2796,13 +2922,13 @@
       <c r="E28" s="26">
         <v>3.0</v>
       </c>
-      <c r="F28" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="F28" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="28" t="s">
@@ -2817,12 +2943,18 @@
       <c r="L28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
+      <c r="M28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
@@ -2836,14 +2968,14 @@
       <c r="AA28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="31">
+      <c r="A29" s="32">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -2853,8 +2985,8 @@
         <f>IF(D29&gt;0,COUNTIF(G29:Z29,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F29" s="34">
-        <v>7.0</v>
+      <c r="F29" s="35">
+        <v>10.0</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -2877,9 +3009,15 @@
       <c r="M29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
+      <c r="N29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
@@ -2893,14 +3031,14 @@
       <c r="AA29" s="36"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="31">
+      <c r="A30" s="32">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -2909,10 +3047,10 @@
       <c r="E30" s="26">
         <v>1.0</v>
       </c>
-      <c r="F30" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G30" s="35" t="s">
+      <c r="F30" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="28" t="s">
@@ -2933,9 +3071,15 @@
       <c r="M30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
+      <c r="N30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
@@ -2949,14 +3093,14 @@
       <c r="AA30" s="36"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="31">
+      <c r="A31" s="32">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -2965,13 +3109,13 @@
       <c r="E31" s="26">
         <v>1.0</v>
       </c>
-      <c r="F31" s="34">
-        <v>6.0</v>
+      <c r="F31" s="35">
+        <v>9.0</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I31" s="28" t="s">
@@ -2989,9 +3133,15 @@
       <c r="M31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
+      <c r="N31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="36"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
@@ -3005,14 +3155,14 @@
       <c r="AA31" s="36"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="31">
+      <c r="A32" s="32">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -3021,13 +3171,13 @@
       <c r="E32" s="26">
         <v>1.0</v>
       </c>
-      <c r="F32" s="34">
-        <v>6.0</v>
+      <c r="F32" s="35">
+        <v>9.0</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="28" t="s">
@@ -3045,9 +3195,15 @@
       <c r="M32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
+      <c r="N32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
@@ -3061,26 +3217,26 @@
       <c r="AA32" s="36"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31">
+      <c r="A33" s="32">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G33" s="35" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="F33" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="28" t="s">
@@ -3101,9 +3257,15 @@
       <c r="M33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
+      <c r="N33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
@@ -3117,25 +3279,24 @@
       <c r="AA33" s="36"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="31">
+      <c r="A34" s="32">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="37">
-        <f>IF(D34&gt;0,COUNTIF(G34:Z34,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="34">
-        <v>7.0</v>
+      <c r="E34" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F34" s="35">
+        <v>8.0</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3158,9 +3319,15 @@
       <c r="M34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
+      <c r="N34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
@@ -3174,14 +3341,14 @@
       <c r="AA34" s="36"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="31">
+      <c r="A35" s="32">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -3190,13 +3357,13 @@
       <c r="E35" s="26">
         <v>3.0</v>
       </c>
-      <c r="F35" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="35" t="s">
+      <c r="F35" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="28" t="s">
@@ -3211,12 +3378,18 @@
       <c r="L35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
+      <c r="M35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
@@ -3230,14 +3403,14 @@
       <c r="AA35" s="36"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="31">
+      <c r="A36" s="32">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -3246,8 +3419,8 @@
       <c r="E36" s="26">
         <v>1.0</v>
       </c>
-      <c r="F36" s="34">
-        <v>6.0</v>
+      <c r="F36" s="35">
+        <v>9.0</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3267,12 +3440,18 @@
       <c r="L36" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
+      <c r="M36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
@@ -3286,29 +3465,29 @@
       <c r="AA36" s="36"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="31">
+      <c r="A37" s="32">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F37" s="34">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>7.0</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="28" t="s">
@@ -3323,12 +3502,18 @@
       <c r="L37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
+      <c r="M37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="36"/>
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
@@ -3342,24 +3527,23 @@
       <c r="AA37" s="36"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="31">
+      <c r="A38" s="32">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="37">
-        <f>IF(D38&gt;0,COUNTIF(G38:Z38,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="34">
+      <c r="E38" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="F38" s="35">
         <v>7.0</v>
       </c>
       <c r="G38" s="28" t="s">
@@ -3383,9 +3567,15 @@
       <c r="M38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
+      <c r="N38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
@@ -3399,26 +3589,26 @@
       <c r="AA38" s="36"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="31">
+      <c r="A39" s="32">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F39" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G39" s="35" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="F39" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G39" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="28" t="s">
@@ -3430,7 +3620,7 @@
       <c r="J39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="35" t="s">
+      <c r="K39" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="28" t="s">
@@ -3439,9 +3629,15 @@
       <c r="M39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="N39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
@@ -3455,14 +3651,14 @@
       <c r="AA39" s="36"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="31">
+      <c r="A40" s="32">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -3471,8 +3667,8 @@
       <c r="E40" s="26">
         <v>1.0</v>
       </c>
-      <c r="F40" s="34">
-        <v>6.0</v>
+      <c r="F40" s="35">
+        <v>9.0</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3492,12 +3688,18 @@
       <c r="L40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
+      <c r="M40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="36"/>
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
@@ -3511,14 +3713,14 @@
       <c r="AA40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="31">
+      <c r="A41" s="32">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="25" t="s">
@@ -3527,8 +3729,8 @@
       <c r="E41" s="26">
         <v>2.0</v>
       </c>
-      <c r="F41" s="34">
-        <v>5.0</v>
+      <c r="F41" s="35">
+        <v>8.0</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3536,7 +3738,7 @@
       <c r="H41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I41" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="28" t="s">
@@ -3548,12 +3750,18 @@
       <c r="L41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M41" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
+      <c r="M41" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="36"/>
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
@@ -3567,14 +3775,14 @@
       <c r="AA41" s="36"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="31">
+      <c r="A42" s="32">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="34" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="25" t="s">
@@ -3583,8 +3791,8 @@
       <c r="E42" s="26">
         <v>2.0</v>
       </c>
-      <c r="F42" s="34">
-        <v>5.0</v>
+      <c r="F42" s="35">
+        <v>8.0</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3598,18 +3806,24 @@
       <c r="J42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="35" t="s">
+      <c r="K42" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
+      <c r="M42" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="36"/>
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
@@ -3623,14 +3837,14 @@
       <c r="AA42" s="36"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="31">
+      <c r="A43" s="32">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="25" t="s">
@@ -3639,8 +3853,8 @@
       <c r="E43" s="26">
         <v>1.0</v>
       </c>
-      <c r="F43" s="34">
-        <v>6.0</v>
+      <c r="F43" s="35">
+        <v>9.0</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3660,12 +3874,18 @@
       <c r="L43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
+      <c r="M43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="36"/>
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
@@ -3679,14 +3899,14 @@
       <c r="AA43" s="36"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="31">
+      <c r="A44" s="32">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -3695,10 +3915,10 @@
       <c r="E44" s="26">
         <v>1.0</v>
       </c>
-      <c r="F44" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G44" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H44" s="28" t="s">
@@ -3719,9 +3939,15 @@
       <c r="M44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
+      <c r="N44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="36"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
@@ -3735,14 +3961,14 @@
       <c r="AA44" s="36"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="31">
+      <c r="A45" s="32">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="34" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -3751,10 +3977,10 @@
       <c r="E45" s="26">
         <v>1.0</v>
       </c>
-      <c r="F45" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G45" s="35" t="s">
+      <c r="F45" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G45" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -3775,9 +4001,15 @@
       <c r="M45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
+      <c r="N45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="36"/>
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
@@ -3791,25 +4023,24 @@
       <c r="AA45" s="36"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="31">
+      <c r="A46" s="32">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="37">
-        <f>IF(D46&gt;0,COUNTIF(G46:Z46,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="34">
-        <v>7.0</v>
+      <c r="E46" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="35">
+        <v>9.0</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3832,9 +4063,15 @@
       <c r="M46" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
+      <c r="N46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="36"/>
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
@@ -3848,26 +4085,26 @@
       <c r="AA46" s="36"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="31">
+      <c r="A47" s="32">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F47" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G47" s="35" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="F47" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G47" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="28" t="s">
@@ -3888,9 +4125,15 @@
       <c r="M47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
+      <c r="N47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -3904,14 +4147,14 @@
       <c r="AA47" s="36"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="31">
+      <c r="A48" s="32">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="34" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -3920,10 +4163,10 @@
       <c r="E48" s="26">
         <v>3.0</v>
       </c>
-      <c r="F48" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="G48" s="35" t="s">
+      <c r="F48" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G48" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="28" t="s">
@@ -3938,15 +4181,21 @@
       <c r="K48" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
+      <c r="L48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="36"/>
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
@@ -3960,25 +4209,24 @@
       <c r="AA48" s="36"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="31">
+      <c r="A49" s="32">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="34" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="37">
-        <f>IF(D49&gt;0,COUNTIF(G49:Z49,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="34">
-        <v>7.0</v>
+      <c r="E49" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="F49" s="35">
+        <v>8.0</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4001,9 +4249,15 @@
       <c r="M49" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
+      <c r="N49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
@@ -4017,14 +4271,14 @@
       <c r="AA49" s="36"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="31">
+      <c r="A50" s="32">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="34" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="25" t="s">
@@ -4033,8 +4287,8 @@
       <c r="E50" s="26">
         <v>1.0</v>
       </c>
-      <c r="F50" s="34">
-        <v>6.0</v>
+      <c r="F50" s="35">
+        <v>9.0</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4054,12 +4308,18 @@
       <c r="L50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
+      <c r="M50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="36"/>
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
@@ -4073,25 +4333,24 @@
       <c r="AA50" s="36"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="31">
+      <c r="A51" s="32">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="37">
-        <f>IF(D51&gt;0,COUNTIF(G51:Z51,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="34">
-        <v>7.0</v>
+      <c r="E51" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="35">
+        <v>9.0</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4114,9 +4373,15 @@
       <c r="M51" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
+      <c r="N51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q51" s="36"/>
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
@@ -4130,29 +4395,29 @@
       <c r="AA51" s="36"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="31">
+      <c r="A52" s="32">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F52" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="35" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="F52" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="28" t="s">
@@ -4170,9 +4435,15 @@
       <c r="M52" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
+      <c r="N52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q52" s="36"/>
       <c r="R52" s="36"/>
       <c r="S52" s="36"/>
@@ -4186,14 +4457,14 @@
       <c r="AA52" s="36"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="31">
+      <c r="A53" s="32">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -4202,10 +4473,10 @@
       <c r="E53" s="26">
         <v>2.0</v>
       </c>
-      <c r="F53" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G53" s="35" t="s">
+      <c r="F53" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G53" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="28" t="s">
@@ -4223,12 +4494,18 @@
       <c r="L53" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
+      <c r="M53" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
       <c r="S53" s="36"/>
@@ -4242,29 +4519,29 @@
       <c r="AA53" s="36"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="31">
+      <c r="A54" s="32">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F54" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="F54" s="35">
         <v>6.0</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="28" t="s">
@@ -4282,9 +4559,15 @@
       <c r="M54" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
+      <c r="N54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q54" s="36"/>
       <c r="R54" s="36"/>
       <c r="S54" s="36"/>
@@ -4298,25 +4581,24 @@
       <c r="AA54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="31">
+      <c r="A55" s="32">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="34" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="37">
-        <f>IF(D55&gt;0,COUNTIF(G55:Z55,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <v>7.0</v>
+      <c r="E55" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="35">
+        <v>9.0</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4339,9 +4621,15 @@
       <c r="M55" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
+      <c r="N55" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="36"/>
       <c r="R55" s="36"/>
       <c r="S55" s="36"/>
@@ -4355,14 +4643,14 @@
       <c r="AA55" s="36"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="31">
+      <c r="A56" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -4371,16 +4659,16 @@
       <c r="E56" s="26">
         <v>3.0</v>
       </c>
-      <c r="F56" s="34">
-        <v>4.0</v>
+      <c r="F56" s="35">
+        <v>7.0</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="35" t="s">
+      <c r="H56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="28" t="s">
@@ -4392,12 +4680,18 @@
       <c r="L56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M56" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
+      <c r="M56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="36"/>
       <c r="R56" s="36"/>
       <c r="S56" s="36"/>
@@ -4411,14 +4705,14 @@
       <c r="AA56" s="36"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="31">
+      <c r="A57" s="32">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="34" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -4427,10 +4721,10 @@
       <c r="E57" s="26">
         <v>2.0</v>
       </c>
-      <c r="F57" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G57" s="35" t="s">
+      <c r="F57" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G57" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="28" t="s">
@@ -4442,7 +4736,7 @@
       <c r="J57" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="35" t="s">
+      <c r="K57" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L57" s="28" t="s">
@@ -4451,9 +4745,15 @@
       <c r="M57" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
+      <c r="N57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="36"/>
       <c r="R57" s="36"/>
       <c r="S57" s="36"/>
@@ -4467,14 +4767,14 @@
       <c r="AA57" s="36"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="31">
+      <c r="A58" s="32">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="25" t="s">
@@ -4484,8 +4784,8 @@
         <f>IF(D58&gt;0,COUNTIF(G58:Z58,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F58" s="34">
-        <v>7.0</v>
+      <c r="F58" s="35">
+        <v>10.0</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4508,9 +4808,15 @@
       <c r="M58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
+      <c r="N58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="36"/>
       <c r="R58" s="36"/>
       <c r="S58" s="36"/>
@@ -4524,14 +4830,14 @@
       <c r="AA58" s="36"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="31">
+      <c r="A59" s="32">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="34" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="25" t="s">
@@ -4540,8 +4846,8 @@
       <c r="E59" s="26">
         <v>2.0</v>
       </c>
-      <c r="F59" s="34">
-        <v>5.0</v>
+      <c r="F59" s="35">
+        <v>8.0</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4558,15 +4864,21 @@
       <c r="K59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
+      <c r="L59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="36"/>
       <c r="R59" s="36"/>
       <c r="S59" s="36"/>
@@ -4580,24 +4892,24 @@
       <c r="AA59" s="36"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="31">
+      <c r="A60" s="32">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F60" s="34">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F60" s="35">
+        <v>8.0</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4617,12 +4929,18 @@
       <c r="L60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
+      <c r="M60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="36"/>
       <c r="R60" s="36"/>
       <c r="S60" s="36"/>
@@ -4636,14 +4954,14 @@
       <c r="AA60" s="36"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="31">
+      <c r="A61" s="32">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="34" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -4652,13 +4970,13 @@
       <c r="E61" s="26">
         <v>2.0</v>
       </c>
-      <c r="F61" s="34">
-        <v>5.0</v>
+      <c r="F61" s="35">
+        <v>8.0</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="35" t="s">
+      <c r="H61" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="28" t="s">
@@ -4673,12 +4991,18 @@
       <c r="L61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
+      <c r="M61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="36"/>
       <c r="R61" s="36"/>
       <c r="S61" s="36"/>
@@ -4692,14 +5016,14 @@
       <c r="AA61" s="36"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="31">
+      <c r="A62" s="32">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="34" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -4708,8 +5032,8 @@
       <c r="E62" s="26">
         <v>1.0</v>
       </c>
-      <c r="F62" s="34">
-        <v>6.0</v>
+      <c r="F62" s="35">
+        <v>9.0</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4729,12 +5053,18 @@
       <c r="L62" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M62" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
+      <c r="M62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="36"/>
       <c r="R62" s="36"/>
       <c r="S62" s="36"/>
@@ -4748,14 +5078,14 @@
       <c r="AA62" s="36"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="31">
+      <c r="A63" s="32">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -4764,10 +5094,10 @@
       <c r="E63" s="26">
         <v>1.0</v>
       </c>
-      <c r="F63" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G63" s="35" t="s">
+      <c r="F63" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G63" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="28" t="s">
@@ -4788,9 +5118,15 @@
       <c r="M63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
+      <c r="N63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="36"/>
       <c r="R63" s="36"/>
       <c r="S63" s="36"/>
@@ -4804,14 +5140,14 @@
       <c r="AA63" s="36"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="31">
+      <c r="A64" s="32">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="25" t="s">
@@ -4820,13 +5156,13 @@
       <c r="E64" s="26">
         <v>2.0</v>
       </c>
-      <c r="F64" s="34">
-        <v>5.0</v>
+      <c r="F64" s="35">
+        <v>8.0</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="28" t="s">
@@ -4838,15 +5174,21 @@
       <c r="K64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="35" t="s">
+      <c r="L64" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
+      <c r="N64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="36"/>
       <c r="R64" s="36"/>
       <c r="S64" s="36"/>
@@ -4860,26 +5202,26 @@
       <c r="AA64" s="36"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="31">
+      <c r="A65" s="32">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="34" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F65" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G65" s="35" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="F65" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G65" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="28" t="s">
@@ -4897,12 +5239,18 @@
       <c r="L65" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M65" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
+      <c r="M65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q65" s="36"/>
       <c r="R65" s="36"/>
       <c r="S65" s="36"/>
@@ -4916,24 +5264,24 @@
       <c r="AA65" s="36"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="31">
+      <c r="A66" s="32">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="34" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="F66" s="34">
-        <v>6.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F66" s="35">
+        <v>8.0</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -4941,7 +5289,7 @@
       <c r="H66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="35" t="s">
+      <c r="I66" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J66" s="28" t="s">
@@ -4956,9 +5304,15 @@
       <c r="M66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
+      <c r="N66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q66" s="36"/>
       <c r="R66" s="36"/>
       <c r="S66" s="36"/>
@@ -4972,14 +5326,14 @@
       <c r="AA66" s="36"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="31">
+      <c r="A67" s="32">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="34" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="25" t="s">
@@ -4988,10 +5342,10 @@
       <c r="E67" s="26">
         <v>1.0</v>
       </c>
-      <c r="F67" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G67" s="35" t="s">
+      <c r="F67" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G67" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H67" s="28" t="s">
@@ -5012,9 +5366,15 @@
       <c r="M67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
+      <c r="N67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q67" s="36"/>
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
@@ -5028,14 +5388,14 @@
       <c r="AA67" s="36"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="31">
+      <c r="A68" s="32">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="34" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -5044,13 +5404,13 @@
       <c r="E68" s="26">
         <v>1.0</v>
       </c>
-      <c r="F68" s="34">
-        <v>6.0</v>
+      <c r="F68" s="35">
+        <v>9.0</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="35" t="s">
+      <c r="H68" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="28" t="s">
@@ -5068,9 +5428,15 @@
       <c r="M68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
+      <c r="N68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="36"/>
       <c r="R68" s="36"/>
       <c r="S68" s="36"/>
@@ -5084,14 +5450,14 @@
       <c r="AA68" s="36"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="31">
+      <c r="A69" s="32">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="34" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="25" t="s">
@@ -5100,8 +5466,8 @@
       <c r="E69" s="26">
         <v>1.0</v>
       </c>
-      <c r="F69" s="34">
-        <v>6.0</v>
+      <c r="F69" s="35">
+        <v>9.0</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5121,12 +5487,18 @@
       <c r="L69" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
+      <c r="M69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="36"/>
       <c r="R69" s="36"/>
       <c r="S69" s="36"/>
@@ -5140,25 +5512,25 @@
       <c r="AA69" s="36"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="31">
+      <c r="A70" s="32">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="37">
-        <f t="shared" ref="E70:E71" si="3">IF(D70&gt;0,COUNTIF(G70:Z70,"A"),"")</f>
+        <f>IF(D70&gt;0,COUNTIF(G70:Z70,"A"),"")</f>
         <v>0</v>
       </c>
-      <c r="F70" s="34">
-        <v>7.0</v>
+      <c r="F70" s="35">
+        <v>10.0</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5181,9 +5553,15 @@
       <c r="M70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
+      <c r="N70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="36"/>
       <c r="R70" s="36"/>
       <c r="S70" s="36"/>
@@ -5197,24 +5575,23 @@
       <c r="AA70" s="36"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="31">
+      <c r="A71" s="32">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="34" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="34">
+      <c r="E71" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="F71" s="35">
         <v>7.0</v>
       </c>
       <c r="G71" s="28" t="s">
@@ -5238,9 +5615,15 @@
       <c r="M71" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
+      <c r="N71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q71" s="36"/>
       <c r="R71" s="36"/>
       <c r="S71" s="36"/>
@@ -5254,14 +5637,14 @@
       <c r="AA71" s="36"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="31">
+      <c r="A72" s="32">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="34" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="25" t="s">
@@ -5270,13 +5653,13 @@
       <c r="E72" s="26">
         <v>2.0</v>
       </c>
-      <c r="F72" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="35" t="s">
+      <c r="F72" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="28" t="s">
@@ -5294,9 +5677,15 @@
       <c r="M72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
+      <c r="N72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="36"/>
       <c r="R72" s="36"/>
       <c r="S72" s="36"/>
@@ -5310,14 +5699,14 @@
       <c r="AA72" s="36"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="31">
+      <c r="A73" s="32">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -5326,13 +5715,13 @@
       <c r="E73" s="26">
         <v>2.0</v>
       </c>
-      <c r="F73" s="34">
-        <v>5.0</v>
+      <c r="F73" s="35">
+        <v>8.0</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="35" t="s">
+      <c r="H73" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="28" t="s">
@@ -5347,12 +5736,18 @@
       <c r="L73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
+      <c r="M73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="36"/>
       <c r="R73" s="36"/>
       <c r="S73" s="36"/>
@@ -5366,14 +5761,14 @@
       <c r="AA73" s="36"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31">
+      <c r="A74" s="32">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="34" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="25" t="s">
@@ -5382,13 +5777,13 @@
       <c r="E74" s="26">
         <v>2.0</v>
       </c>
-      <c r="F74" s="34">
-        <v>5.0</v>
+      <c r="F74" s="35">
+        <v>8.0</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="35" t="s">
+      <c r="H74" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="28" t="s">
@@ -5403,12 +5798,18 @@
       <c r="L74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M74" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
+      <c r="M74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="36"/>
       <c r="R74" s="36"/>
       <c r="S74" s="36"/>
@@ -5422,14 +5823,14 @@
       <c r="AA74" s="36"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="31">
+      <c r="A75" s="32">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="34" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="25" t="s">
@@ -5438,10 +5839,10 @@
       <c r="E75" s="26">
         <v>1.0</v>
       </c>
-      <c r="F75" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="G75" s="35" t="s">
+      <c r="F75" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G75" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H75" s="28" t="s">
@@ -5462,9 +5863,15 @@
       <c r="M75" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
+      <c r="N75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="36"/>
       <c r="R75" s="36"/>
       <c r="S75" s="36"/>
@@ -5478,24 +5885,24 @@
       <c r="AA75" s="36"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="31">
+      <c r="A76" s="32">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="34" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="F76" s="34">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="F76" s="35">
+        <v>7.0</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5503,13 +5910,13 @@
       <c r="H76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="35" t="s">
+      <c r="I76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="35" t="s">
+      <c r="K76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L76" s="28" t="s">
@@ -5518,9 +5925,15 @@
       <c r="M76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
+      <c r="N76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="36"/>
       <c r="R76" s="36"/>
       <c r="S76" s="36"/>
@@ -5534,25 +5947,24 @@
       <c r="AA76" s="36"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="31">
+      <c r="A77" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="34" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="37">
-        <f>IF(D77&gt;0,COUNTIF(G77:Z77,"A"),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="34">
-        <v>7.0</v>
+      <c r="E77" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="F77" s="35">
+        <v>9.0</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5575,9 +5987,15 @@
       <c r="M77" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
+      <c r="N77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="36"/>
       <c r="R77" s="36"/>
       <c r="S77" s="36"/>
@@ -5591,14 +6009,14 @@
       <c r="AA77" s="36"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="31">
+      <c r="A78" s="32">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="34" t="s">
         <v>163</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -5607,8 +6025,8 @@
       <c r="E78" s="26">
         <v>2.0</v>
       </c>
-      <c r="F78" s="34">
-        <v>5.0</v>
+      <c r="F78" s="35">
+        <v>8.0</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5619,7 +6037,7 @@
       <c r="I78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="35" t="s">
+      <c r="J78" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K78" s="28" t="s">
@@ -5628,12 +6046,18 @@
       <c r="L78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M78" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
+      <c r="M78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="36"/>
       <c r="R78" s="36"/>
       <c r="S78" s="36"/>
@@ -5647,35 +6071,35 @@
       <c r="AA78" s="36"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="31">
+      <c r="A79" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="34" t="s">
         <v>165</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="F79" s="34">
         <v>4.0</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="F79" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="G79" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H79" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" s="35" t="s">
+      <c r="I79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K79" s="28" t="s">
@@ -5687,9 +6111,15 @@
       <c r="M79" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
+      <c r="N79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Q79" s="36"/>
       <c r="R79" s="36"/>
       <c r="S79" s="36"/>
@@ -5703,19 +6133,19 @@
       <c r="AA79" s="36"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
+      <c r="A80" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37" t="str">
-        <f t="shared" ref="E80:E95" si="4">IF(D80&gt;0,COUNTIF(G80:Z80,"A"),"")</f>
+        <f t="shared" ref="E80:E95" si="3">IF(D80&gt;0,COUNTIF(G80:Z80,"A"),"")</f>
         <v/>
       </c>
       <c r="F80" s="38" t="str">
-        <f t="shared" ref="F80:F95" si="5">IF(D80&gt;0,COUNTIF(G80:Z80,"P"),"")</f>
+        <f t="shared" ref="F80:F95" si="4">IF(D80&gt;0,COUNTIF(G80:Z80,"P"),"")</f>
         <v/>
       </c>
       <c r="G80" s="39"/>
@@ -5741,19 +6171,19 @@
       <c r="AA80" s="36"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
+      <c r="A81" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F81" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F81" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G81" s="39"/>
@@ -5779,19 +6209,19 @@
       <c r="AA81" s="36"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
+      <c r="A82" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F82" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F82" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G82" s="39"/>
@@ -5817,19 +6247,19 @@
       <c r="AA82" s="36"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
+      <c r="A83" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F83" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F83" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G83" s="39"/>
@@ -5855,19 +6285,19 @@
       <c r="AA83" s="36"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
+      <c r="A84" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F84" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F84" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G84" s="39"/>
@@ -5893,7 +6323,7 @@
       <c r="AA84" s="36"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31" t="str">
+      <c r="A85" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5901,11 +6331,11 @@
       <c r="C85" s="40"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F85" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F85" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G85" s="39"/>
@@ -5931,7 +6361,7 @@
       <c r="AA85" s="36"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31" t="str">
+      <c r="A86" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5939,11 +6369,11 @@
       <c r="C86" s="40"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F86" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F86" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G86" s="39"/>
@@ -5969,7 +6399,7 @@
       <c r="AA86" s="36"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31" t="str">
+      <c r="A87" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5977,11 +6407,11 @@
       <c r="C87" s="40"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F87" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F87" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G87" s="39"/>
@@ -6007,7 +6437,7 @@
       <c r="AA87" s="36"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31" t="str">
+      <c r="A88" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6015,11 +6445,11 @@
       <c r="C88" s="40"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F88" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F88" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G88" s="39"/>
@@ -6045,7 +6475,7 @@
       <c r="AA88" s="36"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="31" t="str">
+      <c r="A89" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6053,11 +6483,11 @@
       <c r="C89" s="40"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F89" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F89" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G89" s="39"/>
@@ -6083,7 +6513,7 @@
       <c r="AA89" s="36"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="31" t="str">
+      <c r="A90" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6091,11 +6521,11 @@
       <c r="C90" s="40"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F90" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F90" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G90" s="39"/>
@@ -6121,7 +6551,7 @@
       <c r="AA90" s="36"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="31" t="str">
+      <c r="A91" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6129,11 +6559,11 @@
       <c r="C91" s="40"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F91" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F91" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G91" s="39"/>
@@ -6159,7 +6589,7 @@
       <c r="AA91" s="36"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="31" t="str">
+      <c r="A92" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6167,11 +6597,11 @@
       <c r="C92" s="40"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F92" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F92" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G92" s="39"/>
@@ -6197,7 +6627,7 @@
       <c r="AA92" s="36"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31" t="str">
+      <c r="A93" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6205,11 +6635,11 @@
       <c r="C93" s="40"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F93" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F93" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G93" s="39"/>
@@ -6235,7 +6665,7 @@
       <c r="AA93" s="36"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31" t="str">
+      <c r="A94" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6243,11 +6673,11 @@
       <c r="C94" s="40"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F94" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F94" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G94" s="39"/>
@@ -6273,7 +6703,7 @@
       <c r="AA94" s="36"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31" t="str">
+      <c r="A95" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6281,11 +6711,11 @@
       <c r="C95" s="40"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F95" s="38" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F95" s="38" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G95" s="39"/>

--- a/attendance-files/SM-II/SM-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="166">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1618,7 +1618,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="27">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1650,9 +1650,15 @@
       <c r="P7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="Q7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
@@ -1680,7 +1686,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1712,9 +1718,15 @@
       <c r="P8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="Q8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
       <c r="V8" s="36"/>
@@ -1743,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="35">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1775,9 +1787,15 @@
       <c r="P9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="Q9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
@@ -1806,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="35">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1838,9 +1856,15 @@
       <c r="P10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="Q10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
@@ -1868,7 +1892,7 @@
         <v>2.0</v>
       </c>
       <c r="F11" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1900,9 +1924,15 @@
       <c r="P11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
+      <c r="Q11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
@@ -1930,7 +1960,7 @@
         <v>2.0</v>
       </c>
       <c r="F12" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1962,9 +1992,15 @@
       <c r="P12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="Q12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
@@ -1992,7 +2028,7 @@
         <v>3.0</v>
       </c>
       <c r="F13" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2024,9 +2060,15 @@
       <c r="P13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="Q13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
       <c r="V13" s="36"/>
@@ -2054,7 +2096,7 @@
         <v>2.0</v>
       </c>
       <c r="F14" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2086,9 +2128,15 @@
       <c r="P14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
+      <c r="Q14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
@@ -2116,7 +2164,7 @@
         <v>3.0</v>
       </c>
       <c r="F15" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2148,9 +2196,15 @@
       <c r="P15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
+      <c r="Q15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
@@ -2179,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="35">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2211,9 +2265,15 @@
       <c r="P16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
+      <c r="Q16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
@@ -2241,7 +2301,7 @@
         <v>4.0</v>
       </c>
       <c r="F17" s="35">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>21</v>
@@ -2273,9 +2333,15 @@
       <c r="P17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
+      <c r="Q17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
       <c r="V17" s="36"/>
@@ -2303,7 +2369,7 @@
         <v>2.0</v>
       </c>
       <c r="F18" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2335,9 +2401,15 @@
       <c r="P18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
+      <c r="Q18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
@@ -2365,7 +2437,7 @@
         <v>4.0</v>
       </c>
       <c r="F19" s="35">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>21</v>
@@ -2397,9 +2469,15 @@
       <c r="P19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="Q19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
@@ -2427,7 +2505,7 @@
         <v>2.0</v>
       </c>
       <c r="F20" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>21</v>
@@ -2459,9 +2537,15 @@
       <c r="P20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
+      <c r="Q20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
@@ -2489,7 +2573,7 @@
         <v>5.0</v>
       </c>
       <c r="F21" s="35">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>21</v>
@@ -2521,9 +2605,15 @@
       <c r="P21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="Q21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
@@ -2551,7 +2641,7 @@
         <v>2.0</v>
       </c>
       <c r="F22" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2583,9 +2673,15 @@
       <c r="P22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
+      <c r="Q22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
@@ -2613,7 +2709,7 @@
         <v>4.0</v>
       </c>
       <c r="F23" s="35">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>21</v>
@@ -2645,9 +2741,15 @@
       <c r="P23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
+      <c r="Q23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
@@ -2675,7 +2777,7 @@
         <v>3.0</v>
       </c>
       <c r="F24" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2707,9 +2809,15 @@
       <c r="P24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
+      <c r="Q24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
@@ -2737,7 +2845,7 @@
         <v>4.0</v>
       </c>
       <c r="F25" s="35">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>21</v>
@@ -2769,9 +2877,15 @@
       <c r="P25" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
+      <c r="Q25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
@@ -2799,7 +2913,7 @@
         <v>2.0</v>
       </c>
       <c r="F26" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2831,9 +2945,15 @@
       <c r="P26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
+      <c r="Q26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
@@ -2861,7 +2981,7 @@
         <v>2.0</v>
       </c>
       <c r="F27" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2893,9 +3013,15 @@
       <c r="P27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
+      <c r="Q27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
@@ -2920,10 +3046,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="26">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F28" s="35">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>21</v>
@@ -2955,9 +3081,15 @@
       <c r="P28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
+      <c r="Q28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
@@ -2986,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="35">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>20</v>
@@ -3018,9 +3150,15 @@
       <c r="P29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="Q29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
@@ -3048,7 +3186,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>21</v>
@@ -3080,9 +3218,15 @@
       <c r="P30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="Q30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
@@ -3110,7 +3254,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3142,9 +3286,15 @@
       <c r="P31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
+      <c r="Q31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
@@ -3169,10 +3319,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" s="35">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3204,9 +3354,15 @@
       <c r="P32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
+      <c r="Q32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
@@ -3231,10 +3387,10 @@
         <v>9</v>
       </c>
       <c r="E33" s="26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F33" s="35">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>21</v>
@@ -3266,9 +3422,15 @@
       <c r="P33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="Q33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
@@ -3296,7 +3458,7 @@
         <v>2.0</v>
       </c>
       <c r="F34" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3328,9 +3490,15 @@
       <c r="P34" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
+      <c r="Q34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
@@ -3358,7 +3526,7 @@
         <v>3.0</v>
       </c>
       <c r="F35" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>21</v>
@@ -3390,9 +3558,15 @@
       <c r="P35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="Q35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
@@ -3420,7 +3594,7 @@
         <v>1.0</v>
       </c>
       <c r="F36" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3452,9 +3626,15 @@
       <c r="P36" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
+      <c r="Q36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
@@ -3479,10 +3659,10 @@
         <v>9</v>
       </c>
       <c r="E37" s="26">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F37" s="35">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3514,9 +3694,15 @@
       <c r="P37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="Q37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
@@ -3541,10 +3727,10 @@
         <v>9</v>
       </c>
       <c r="E38" s="26">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" s="35">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3576,9 +3762,15 @@
       <c r="P38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
+      <c r="Q38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
@@ -3606,7 +3798,7 @@
         <v>3.0</v>
       </c>
       <c r="F39" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>21</v>
@@ -3638,9 +3830,15 @@
       <c r="P39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
+      <c r="Q39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
@@ -3668,7 +3866,7 @@
         <v>1.0</v>
       </c>
       <c r="F40" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3700,9 +3898,15 @@
       <c r="P40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
+      <c r="Q40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
@@ -3730,7 +3934,7 @@
         <v>2.0</v>
       </c>
       <c r="F41" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3762,9 +3966,15 @@
       <c r="P41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
+      <c r="Q41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
@@ -3792,7 +4002,7 @@
         <v>2.0</v>
       </c>
       <c r="F42" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3824,9 +4034,15 @@
       <c r="P42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
+      <c r="Q42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
@@ -3854,7 +4070,7 @@
         <v>1.0</v>
       </c>
       <c r="F43" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3886,9 +4102,15 @@
       <c r="P43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
+      <c r="Q43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
@@ -3916,7 +4138,7 @@
         <v>1.0</v>
       </c>
       <c r="F44" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G44" s="30" t="s">
         <v>21</v>
@@ -3948,9 +4170,15 @@
       <c r="P44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
+      <c r="Q44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
@@ -3978,7 +4206,7 @@
         <v>1.0</v>
       </c>
       <c r="F45" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>21</v>
@@ -4010,9 +4238,15 @@
       <c r="P45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
+      <c r="Q45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
@@ -4040,7 +4274,7 @@
         <v>1.0</v>
       </c>
       <c r="F46" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4072,9 +4306,15 @@
       <c r="P46" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
+      <c r="Q46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
       <c r="V46" s="36"/>
@@ -4102,7 +4342,7 @@
         <v>2.0</v>
       </c>
       <c r="F47" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>21</v>
@@ -4134,9 +4374,15 @@
       <c r="P47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
+      <c r="Q47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
       <c r="V47" s="36"/>
@@ -4164,7 +4410,7 @@
         <v>3.0</v>
       </c>
       <c r="F48" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>21</v>
@@ -4196,9 +4442,15 @@
       <c r="P48" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
+      <c r="Q48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
       <c r="V48" s="36"/>
@@ -4226,7 +4478,7 @@
         <v>2.0</v>
       </c>
       <c r="F49" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4258,9 +4510,15 @@
       <c r="P49" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
+      <c r="Q49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
       <c r="V49" s="36"/>
@@ -4285,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="E50" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F50" s="35">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4320,9 +4578,15 @@
       <c r="P50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
+      <c r="Q50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
       <c r="V50" s="36"/>
@@ -4350,7 +4614,7 @@
         <v>1.0</v>
       </c>
       <c r="F51" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4382,9 +4646,15 @@
       <c r="P51" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
+      <c r="Q51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
       <c r="V51" s="36"/>
@@ -4412,7 +4682,7 @@
         <v>3.0</v>
       </c>
       <c r="F52" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>21</v>
@@ -4444,9 +4714,15 @@
       <c r="P52" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
+      <c r="Q52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T52" s="36"/>
       <c r="U52" s="36"/>
       <c r="V52" s="36"/>
@@ -4474,7 +4750,7 @@
         <v>2.0</v>
       </c>
       <c r="F53" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>21</v>
@@ -4506,9 +4782,15 @@
       <c r="P53" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
+      <c r="Q53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
@@ -4536,7 +4818,7 @@
         <v>4.0</v>
       </c>
       <c r="F54" s="35">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4568,9 +4850,15 @@
       <c r="P54" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
+      <c r="Q54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
       <c r="V54" s="36"/>
@@ -4598,7 +4886,7 @@
         <v>1.0</v>
       </c>
       <c r="F55" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4630,9 +4918,15 @@
       <c r="P55" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
+      <c r="Q55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
@@ -4660,7 +4954,7 @@
         <v>3.0</v>
       </c>
       <c r="F56" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -4692,9 +4986,15 @@
       <c r="P56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
+      <c r="Q56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
       <c r="V56" s="36"/>
@@ -4722,7 +5022,7 @@
         <v>2.0</v>
       </c>
       <c r="F57" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>21</v>
@@ -4754,9 +5054,15 @@
       <c r="P57" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
+      <c r="Q57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T57" s="36"/>
       <c r="U57" s="36"/>
       <c r="V57" s="36"/>
@@ -4785,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="35">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4817,9 +5123,15 @@
       <c r="P58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
+      <c r="Q58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T58" s="36"/>
       <c r="U58" s="36"/>
       <c r="V58" s="36"/>
@@ -4847,7 +5159,7 @@
         <v>2.0</v>
       </c>
       <c r="F59" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4879,9 +5191,15 @@
       <c r="P59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
+      <c r="Q59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T59" s="36"/>
       <c r="U59" s="36"/>
       <c r="V59" s="36"/>
@@ -4909,7 +5227,7 @@
         <v>2.0</v>
       </c>
       <c r="F60" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4941,9 +5259,15 @@
       <c r="P60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
+      <c r="Q60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T60" s="36"/>
       <c r="U60" s="36"/>
       <c r="V60" s="36"/>
@@ -4968,10 +5292,10 @@
         <v>9</v>
       </c>
       <c r="E61" s="26">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F61" s="35">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5003,9 +5327,15 @@
       <c r="P61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
+      <c r="Q61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T61" s="36"/>
       <c r="U61" s="36"/>
       <c r="V61" s="36"/>
@@ -5033,7 +5363,7 @@
         <v>1.0</v>
       </c>
       <c r="F62" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5065,9 +5395,15 @@
       <c r="P62" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
+      <c r="Q62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T62" s="36"/>
       <c r="U62" s="36"/>
       <c r="V62" s="36"/>
@@ -5092,10 +5428,10 @@
         <v>9</v>
       </c>
       <c r="E63" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F63" s="35">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>21</v>
@@ -5127,9 +5463,15 @@
       <c r="P63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
+      <c r="Q63" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
       <c r="V63" s="36"/>
@@ -5157,7 +5499,7 @@
         <v>2.0</v>
       </c>
       <c r="F64" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5189,9 +5531,15 @@
       <c r="P64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
+      <c r="Q64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
       <c r="V64" s="36"/>
@@ -5219,7 +5567,7 @@
         <v>3.0</v>
       </c>
       <c r="F65" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>21</v>
@@ -5251,9 +5599,15 @@
       <c r="P65" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
+      <c r="Q65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T65" s="36"/>
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
@@ -5281,7 +5635,7 @@
         <v>2.0</v>
       </c>
       <c r="F66" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5313,9 +5667,15 @@
       <c r="P66" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
+      <c r="Q66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T66" s="36"/>
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
@@ -5340,10 +5700,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F67" s="35">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>21</v>
@@ -5375,9 +5735,15 @@
       <c r="P67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
+      <c r="Q67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T67" s="36"/>
       <c r="U67" s="36"/>
       <c r="V67" s="36"/>
@@ -5405,7 +5771,7 @@
         <v>1.0</v>
       </c>
       <c r="F68" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -5437,9 +5803,15 @@
       <c r="P68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
+      <c r="Q68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T68" s="36"/>
       <c r="U68" s="36"/>
       <c r="V68" s="36"/>
@@ -5467,7 +5839,7 @@
         <v>1.0</v>
       </c>
       <c r="F69" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -5499,9 +5871,15 @@
       <c r="P69" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
+      <c r="Q69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T69" s="36"/>
       <c r="U69" s="36"/>
       <c r="V69" s="36"/>
@@ -5530,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="35">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -5562,9 +5940,15 @@
       <c r="P70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
+      <c r="Q70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
       <c r="V70" s="36"/>
@@ -5592,7 +5976,7 @@
         <v>3.0</v>
       </c>
       <c r="F71" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -5624,9 +6008,15 @@
       <c r="P71" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
+      <c r="Q71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
       <c r="V71" s="36"/>
@@ -5654,7 +6044,7 @@
         <v>2.0</v>
       </c>
       <c r="F72" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G72" s="30" t="s">
         <v>21</v>
@@ -5686,9 +6076,15 @@
       <c r="P72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
+      <c r="Q72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
       <c r="V72" s="36"/>
@@ -5716,7 +6112,7 @@
         <v>2.0</v>
       </c>
       <c r="F73" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -5748,9 +6144,15 @@
       <c r="P73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
+      <c r="Q73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T73" s="36"/>
       <c r="U73" s="36"/>
       <c r="V73" s="36"/>
@@ -5778,7 +6180,7 @@
         <v>2.0</v>
       </c>
       <c r="F74" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5810,9 +6212,15 @@
       <c r="P74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
+      <c r="Q74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
       <c r="V74" s="36"/>
@@ -5840,7 +6248,7 @@
         <v>1.0</v>
       </c>
       <c r="F75" s="35">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>21</v>
@@ -5872,9 +6280,15 @@
       <c r="P75" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
+      <c r="Q75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T75" s="36"/>
       <c r="U75" s="36"/>
       <c r="V75" s="36"/>
@@ -5902,7 +6316,7 @@
         <v>3.0</v>
       </c>
       <c r="F76" s="35">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5934,9 +6348,15 @@
       <c r="P76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
+      <c r="Q76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T76" s="36"/>
       <c r="U76" s="36"/>
       <c r="V76" s="36"/>
@@ -5961,10 +6381,10 @@
         <v>9</v>
       </c>
       <c r="E77" s="26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F77" s="35">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5996,9 +6416,15 @@
       <c r="P77" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
+      <c r="Q77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T77" s="36"/>
       <c r="U77" s="36"/>
       <c r="V77" s="36"/>
@@ -6026,7 +6452,7 @@
         <v>2.0</v>
       </c>
       <c r="F78" s="35">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -6058,9 +6484,15 @@
       <c r="P78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
+      <c r="Q78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
       <c r="V78" s="36"/>
@@ -6088,7 +6520,7 @@
         <v>4.0</v>
       </c>
       <c r="F79" s="35">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>21</v>
@@ -6120,9 +6552,15 @@
       <c r="P79" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
+      <c r="Q79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
       <c r="V79" s="36"/>
@@ -6158,7 +6596,7 @@
       <c r="N80" s="36"/>
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
+      <c r="Q80" s="28"/>
       <c r="R80" s="36"/>
       <c r="S80" s="36"/>
       <c r="T80" s="36"/>

--- a/attendance-files/SM-II/SM-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/SM-II/SM-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="166">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1618,7 +1618,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="27">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1659,12 +1659,8 @@
       <c r="S7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
       <c r="X7" s="31"/>
@@ -1690,7 +1686,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="35">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1731,12 +1727,8 @@
       <c r="S8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
       <c r="V8" s="36"/>
       <c r="W8" s="36"/>
       <c r="X8" s="36"/>
@@ -1759,11 +1751,11 @@
         <v>9</v>
       </c>
       <c r="E9" s="37">
-        <f>IF(D9&gt;0,COUNTIF(G9:Z9,"A"),"")</f>
+        <f t="shared" ref="E9:E10" si="2">IF(D9&gt;0,COUNTIF(G9:Z9,"A"),"")</f>
         <v>0</v>
       </c>
       <c r="F9" s="35">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1804,12 +1796,8 @@
       <c r="S9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
       <c r="V9" s="36"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -1831,8 +1819,9 @@
       <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="26">
-        <v>2.0</v>
+      <c r="E10" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F10" s="35">
         <v>13.0</v>
@@ -1876,12 +1865,8 @@
       <c r="S10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="36"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -1904,10 +1889,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1948,12 +1933,8 @@
       <c r="S11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -1976,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -2020,12 +2001,8 @@
       <c r="S12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -2051,7 +2028,7 @@
         <v>3.0</v>
       </c>
       <c r="F13" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -2092,12 +2069,8 @@
       <c r="S13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -2123,7 +2096,7 @@
         <v>2.0</v>
       </c>
       <c r="F14" s="35">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2164,12 +2137,8 @@
       <c r="S14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -2195,7 +2164,7 @@
         <v>3.0</v>
       </c>
       <c r="F15" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2236,12 +2205,8 @@
       <c r="S15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
       <c r="V15" s="36"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -2263,11 +2228,12 @@
       <c r="D16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="26">
-        <v>1.0</v>
+      <c r="E16" s="37">
+        <f>IF(D16&gt;0,COUNTIF(G16:Z16,"A"),"")</f>
+        <v>0</v>
       </c>
       <c r="F16" s="35">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2308,12 +2274,8 @@
       <c r="S16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="36"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -2336,10 +2298,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="26">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F17" s="35">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>21</v>
@@ -2380,12 +2342,8 @@
       <c r="S17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
       <c r="V17" s="36"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -2408,10 +2366,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F18" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2452,12 +2410,8 @@
       <c r="S18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
@@ -2483,7 +2437,7 @@
         <v>4.0</v>
       </c>
       <c r="F19" s="35">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>21</v>
@@ -2524,12 +2478,8 @@
       <c r="S19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="36"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
@@ -2555,7 +2505,7 @@
         <v>2.0</v>
       </c>
       <c r="F20" s="35">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>21</v>
@@ -2596,12 +2546,8 @@
       <c r="S20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -2627,7 +2573,7 @@
         <v>5.0</v>
       </c>
       <c r="F21" s="35">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>21</v>
@@ -2668,12 +2614,8 @@
       <c r="S21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U21" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
       <c r="V21" s="36"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
@@ -2696,10 +2638,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2740,12 +2682,8 @@
       <c r="S22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
       <c r="V22" s="36"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
@@ -2771,7 +2709,7 @@
         <v>4.0</v>
       </c>
       <c r="F23" s="35">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>21</v>
@@ -2812,12 +2750,8 @@
       <c r="S23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
       <c r="V23" s="36"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
@@ -2843,7 +2777,7 @@
         <v>3.0</v>
       </c>
       <c r="F24" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2884,12 +2818,8 @@
       <c r="S24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="36"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -2915,7 +2845,7 @@
         <v>4.0</v>
       </c>
       <c r="F25" s="35">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>21</v>
@@ -2956,12 +2886,8 @@
       <c r="S25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
       <c r="V25" s="36"/>
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
@@ -2987,7 +2913,7 @@
         <v>2.0</v>
       </c>
       <c r="F26" s="35">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -3028,12 +2954,8 @@
       <c r="S26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
       <c r="V26" s="36"/>
       <c r="W26" s="36"/>
       <c r="X26" s="36"/>
@@ -3056,10 +2978,10 @@
         <v>9</v>
       </c>
       <c r="E27" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -3100,12 +3022,8 @@
       <c r="S27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
       <c r="V27" s="36"/>
       <c r="W27" s="36"/>
       <c r="X27" s="36"/>
@@ -3131,7 +3049,7 @@
         <v>4.0</v>
       </c>
       <c r="F28" s="35">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>21</v>
@@ -3172,12 +3090,8 @@
       <c r="S28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
       <c r="V28" s="36"/>
       <c r="W28" s="36"/>
       <c r="X28" s="36"/>
@@ -3199,8 +3113,9 @@
       <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="26">
-        <v>2.0</v>
+      <c r="E29" s="37">
+        <f>IF(D29&gt;0,COUNTIF(G29:Z29,"A"),"")</f>
+        <v>0</v>
       </c>
       <c r="F29" s="35">
         <v>13.0</v>
@@ -3244,12 +3159,8 @@
       <c r="S29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
       <c r="V29" s="36"/>
       <c r="W29" s="36"/>
       <c r="X29" s="36"/>
@@ -3275,7 +3186,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" s="35">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>21</v>
@@ -3316,12 +3227,8 @@
       <c r="S30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
       <c r="V30" s="36"/>
       <c r="W30" s="36"/>
       <c r="X30" s="36"/>
@@ -3344,10 +3251,10 @@
         <v>9</v>
       </c>
       <c r="E31" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -3388,12 +3295,8 @@
       <c r="S31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U31" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
       <c r="V31" s="36"/>
       <c r="W31" s="36"/>
       <c r="X31" s="36"/>
@@ -3416,10 +3319,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -3460,12 +3363,8 @@
       <c r="S32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
       <c r="V32" s="36"/>
       <c r="W32" s="36"/>
       <c r="X32" s="36"/>
@@ -3491,7 +3390,7 @@
         <v>3.0</v>
       </c>
       <c r="F33" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>21</v>
@@ -3532,12 +3431,8 @@
       <c r="S33" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U33" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
       <c r="V33" s="36"/>
       <c r="W33" s="36"/>
       <c r="X33" s="36"/>
@@ -3560,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F34" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3604,12 +3499,8 @@
       <c r="S34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U34" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
       <c r="V34" s="36"/>
       <c r="W34" s="36"/>
       <c r="X34" s="36"/>
@@ -3635,7 +3526,7 @@
         <v>3.0</v>
       </c>
       <c r="F35" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>21</v>
@@ -3676,12 +3567,8 @@
       <c r="S35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T35" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U35" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
       <c r="V35" s="36"/>
       <c r="W35" s="36"/>
       <c r="X35" s="36"/>
@@ -3704,7 +3591,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="26">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F36" s="35">
         <v>12.0</v>
@@ -3748,12 +3635,8 @@
       <c r="S36" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U36" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
       <c r="V36" s="36"/>
       <c r="W36" s="36"/>
       <c r="X36" s="36"/>
@@ -3779,7 +3662,7 @@
         <v>5.0</v>
       </c>
       <c r="F37" s="35">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3820,12 +3703,8 @@
       <c r="S37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
       <c r="V37" s="36"/>
       <c r="W37" s="36"/>
       <c r="X37" s="36"/>
@@ -3851,7 +3730,7 @@
         <v>4.0</v>
       </c>
       <c r="F38" s="35">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3892,12 +3771,8 @@
       <c r="S38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T38" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U38" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
       <c r="V38" s="36"/>
       <c r="W38" s="36"/>
       <c r="X38" s="36"/>
@@ -3923,7 +3798,7 @@
         <v>3.0</v>
       </c>
       <c r="F39" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>21</v>
@@ -3964,12 +3839,8 @@
       <c r="S39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T39" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U39" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
       <c r="V39" s="36"/>
       <c r="W39" s="36"/>
       <c r="X39" s="36"/>
@@ -3992,10 +3863,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F40" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -4036,12 +3907,8 @@
       <c r="S40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
       <c r="V40" s="36"/>
       <c r="W40" s="36"/>
       <c r="X40" s="36"/>
@@ -4064,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F41" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -4108,12 +3975,8 @@
       <c r="S41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U41" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
       <c r="V41" s="36"/>
       <c r="W41" s="36"/>
       <c r="X41" s="36"/>
@@ -4136,10 +3999,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F42" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -4180,12 +4043,8 @@
       <c r="S42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T42" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U42" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
       <c r="V42" s="36"/>
       <c r="W42" s="36"/>
       <c r="X42" s="36"/>
@@ -4208,10 +4067,10 @@
         <v>9</v>
       </c>
       <c r="E43" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -4252,12 +4111,8 @@
       <c r="S43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U43" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
       <c r="V43" s="36"/>
       <c r="W43" s="36"/>
       <c r="X43" s="36"/>
@@ -4280,7 +4135,7 @@
         <v>9</v>
       </c>
       <c r="E44" s="26">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F44" s="35">
         <v>12.0</v>
@@ -4324,12 +4179,8 @@
       <c r="S44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
       <c r="V44" s="36"/>
       <c r="W44" s="36"/>
       <c r="X44" s="36"/>
@@ -4352,10 +4203,10 @@
         <v>9</v>
       </c>
       <c r="E45" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F45" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G45" s="30" t="s">
         <v>21</v>
@@ -4396,12 +4247,8 @@
       <c r="S45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T45" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U45" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
       <c r="V45" s="36"/>
       <c r="W45" s="36"/>
       <c r="X45" s="36"/>
@@ -4424,10 +4271,10 @@
         <v>9</v>
       </c>
       <c r="E46" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F46" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -4468,12 +4315,8 @@
       <c r="S46" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U46" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
       <c r="V46" s="36"/>
       <c r="W46" s="36"/>
       <c r="X46" s="36"/>
@@ -4499,7 +4342,7 @@
         <v>2.0</v>
       </c>
       <c r="F47" s="35">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>21</v>
@@ -4540,12 +4383,8 @@
       <c r="S47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U47" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
       <c r="V47" s="36"/>
       <c r="W47" s="36"/>
       <c r="X47" s="36"/>
@@ -4571,7 +4410,7 @@
         <v>3.0</v>
       </c>
       <c r="F48" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>21</v>
@@ -4612,12 +4451,8 @@
       <c r="S48" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U48" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
       <c r="V48" s="36"/>
       <c r="W48" s="36"/>
       <c r="X48" s="36"/>
@@ -4640,10 +4475,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F49" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>20</v>
@@ -4684,12 +4519,8 @@
       <c r="S49" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T49" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U49" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
       <c r="V49" s="36"/>
       <c r="W49" s="36"/>
       <c r="X49" s="36"/>
@@ -4712,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="E50" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F50" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -4756,12 +4587,8 @@
       <c r="S50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T50" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U50" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
       <c r="V50" s="36"/>
       <c r="W50" s="36"/>
       <c r="X50" s="36"/>
@@ -4787,7 +4614,7 @@
         <v>1.0</v>
       </c>
       <c r="F51" s="35">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -4828,12 +4655,8 @@
       <c r="S51" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T51" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U51" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
       <c r="V51" s="36"/>
       <c r="W51" s="36"/>
       <c r="X51" s="36"/>
@@ -4859,7 +4682,7 @@
         <v>3.0</v>
       </c>
       <c r="F52" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>21</v>
@@ -4900,12 +4723,8 @@
       <c r="S52" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T52" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U52" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
       <c r="V52" s="36"/>
       <c r="W52" s="36"/>
       <c r="X52" s="36"/>
@@ -4928,10 +4747,10 @@
         <v>9</v>
       </c>
       <c r="E53" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F53" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G53" s="30" t="s">
         <v>21</v>
@@ -4972,12 +4791,8 @@
       <c r="S53" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U53" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
       <c r="V53" s="36"/>
       <c r="W53" s="36"/>
       <c r="X53" s="36"/>
@@ -5003,7 +4818,7 @@
         <v>4.0</v>
       </c>
       <c r="F54" s="35">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -5044,12 +4859,8 @@
       <c r="S54" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T54" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U54" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
       <c r="V54" s="36"/>
       <c r="W54" s="36"/>
       <c r="X54" s="36"/>
@@ -5072,7 +4883,7 @@
         <v>9</v>
       </c>
       <c r="E55" s="26">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F55" s="35">
         <v>12.0</v>
@@ -5116,12 +4927,8 @@
       <c r="S55" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U55" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
       <c r="V55" s="36"/>
       <c r="W55" s="36"/>
       <c r="X55" s="36"/>
@@ -5147,7 +4954,7 @@
         <v>3.0</v>
       </c>
       <c r="F56" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>20</v>
@@ -5188,12 +4995,8 @@
       <c r="S56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U56" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
       <c r="V56" s="36"/>
       <c r="W56" s="36"/>
       <c r="X56" s="36"/>
@@ -5216,10 +5019,10 @@
         <v>9</v>
       </c>
       <c r="E57" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F57" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G57" s="30" t="s">
         <v>21</v>
@@ -5260,12 +5063,8 @@
       <c r="S57" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T57" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U57" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
       <c r="V57" s="36"/>
       <c r="W57" s="36"/>
       <c r="X57" s="36"/>
@@ -5292,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="35">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -5333,12 +5132,8 @@
       <c r="S58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T58" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U58" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
       <c r="V58" s="36"/>
       <c r="W58" s="36"/>
       <c r="X58" s="36"/>
@@ -5361,10 +5156,10 @@
         <v>9</v>
       </c>
       <c r="E59" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F59" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -5405,12 +5200,8 @@
       <c r="S59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T59" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U59" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
       <c r="V59" s="36"/>
       <c r="W59" s="36"/>
       <c r="X59" s="36"/>
@@ -5433,10 +5224,10 @@
         <v>9</v>
       </c>
       <c r="E60" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F60" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -5477,12 +5268,8 @@
       <c r="S60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U60" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
       <c r="V60" s="36"/>
       <c r="W60" s="36"/>
       <c r="X60" s="36"/>
@@ -5508,7 +5295,7 @@
         <v>3.0</v>
       </c>
       <c r="F61" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -5549,12 +5336,8 @@
       <c r="S61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U61" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
       <c r="V61" s="36"/>
       <c r="W61" s="36"/>
       <c r="X61" s="36"/>
@@ -5577,10 +5360,10 @@
         <v>9</v>
       </c>
       <c r="E62" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F62" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -5621,12 +5404,8 @@
       <c r="S62" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T62" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U62" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
       <c r="V62" s="36"/>
       <c r="W62" s="36"/>
       <c r="X62" s="36"/>
@@ -5649,10 +5428,10 @@
         <v>9</v>
       </c>
       <c r="E63" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F63" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G63" s="30" t="s">
         <v>21</v>
@@ -5693,12 +5472,8 @@
       <c r="S63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T63" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U63" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
       <c r="V63" s="36"/>
       <c r="W63" s="36"/>
       <c r="X63" s="36"/>
@@ -5721,10 +5496,10 @@
         <v>9</v>
       </c>
       <c r="E64" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F64" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -5765,12 +5540,8 @@
       <c r="S64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U64" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
       <c r="V64" s="36"/>
       <c r="W64" s="36"/>
       <c r="X64" s="36"/>
@@ -5796,7 +5567,7 @@
         <v>3.0</v>
       </c>
       <c r="F65" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>21</v>
@@ -5837,12 +5608,8 @@
       <c r="S65" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T65" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U65" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
       <c r="V65" s="36"/>
       <c r="W65" s="36"/>
       <c r="X65" s="36"/>
@@ -5865,10 +5632,10 @@
         <v>9</v>
       </c>
       <c r="E66" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F66" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -5909,12 +5676,8 @@
       <c r="S66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T66" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U66" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
       <c r="V66" s="36"/>
       <c r="W66" s="36"/>
       <c r="X66" s="36"/>
@@ -5937,10 +5700,10 @@
         <v>9</v>
       </c>
       <c r="E67" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F67" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>21</v>
@@ -5981,12 +5744,8 @@
       <c r="S67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U67" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
       <c r="V67" s="36"/>
       <c r="W67" s="36"/>
       <c r="X67" s="36"/>
@@ -6012,7 +5771,7 @@
         <v>1.0</v>
       </c>
       <c r="F68" s="35">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -6053,12 +5812,8 @@
       <c r="S68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U68" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
       <c r="V68" s="36"/>
       <c r="W68" s="36"/>
       <c r="X68" s="36"/>
@@ -6081,10 +5836,10 @@
         <v>9</v>
       </c>
       <c r="E69" s="26">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F69" s="35">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -6125,12 +5880,8 @@
       <c r="S69" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T69" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U69" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
       <c r="V69" s="36"/>
       <c r="W69" s="36"/>
       <c r="X69" s="36"/>
@@ -6152,11 +5903,12 @@
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="26">
-        <v>1.0</v>
+      <c r="E70" s="37">
+        <f>IF(D70&gt;0,COUNTIF(G70:Z70,"A"),"")</f>
+        <v>0</v>
       </c>
       <c r="F70" s="35">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -6197,12 +5949,8 @@
       <c r="S70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U70" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
       <c r="V70" s="36"/>
       <c r="W70" s="36"/>
       <c r="X70" s="36"/>
@@ -6228,7 +5976,7 @@
         <v>3.0</v>
       </c>
       <c r="F71" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -6269,12 +6017,8 @@
       <c r="S71" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T71" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U71" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
       <c r="V71" s="36"/>
       <c r="W71" s="36"/>
       <c r="X71" s="36"/>
@@ -6297,10 +6041,10 @@
         <v>9</v>
       </c>
       <c r="E72" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F72" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G72" s="30" t="s">
         <v>21</v>
@@ -6341,12 +6085,8 @@
       <c r="S72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T72" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U72" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
       <c r="V72" s="36"/>
       <c r="W72" s="36"/>
       <c r="X72" s="36"/>
@@ -6369,10 +6109,10 @@
         <v>9</v>
       </c>
       <c r="E73" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F73" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -6413,12 +6153,8 @@
       <c r="S73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U73" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
       <c r="V73" s="36"/>
       <c r="W73" s="36"/>
       <c r="X73" s="36"/>
@@ -6441,10 +6177,10 @@
         <v>9</v>
       </c>
       <c r="E74" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F74" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -6485,12 +6221,8 @@
       <c r="S74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T74" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U74" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
       <c r="V74" s="36"/>
       <c r="W74" s="36"/>
       <c r="X74" s="36"/>
@@ -6513,7 +6245,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="26">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F75" s="35">
         <v>12.0</v>
@@ -6557,12 +6289,8 @@
       <c r="S75" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U75" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T75" s="36"/>
+      <c r="U75" s="36"/>
       <c r="V75" s="36"/>
       <c r="W75" s="36"/>
       <c r="X75" s="36"/>
@@ -6588,7 +6316,7 @@
         <v>3.0</v>
       </c>
       <c r="F76" s="35">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -6629,12 +6357,8 @@
       <c r="S76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T76" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U76" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
       <c r="V76" s="36"/>
       <c r="W76" s="36"/>
       <c r="X76" s="36"/>
@@ -6657,10 +6381,10 @@
         <v>9</v>
       </c>
       <c r="E77" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F77" s="35">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -6701,12 +6425,8 @@
       <c r="S77" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T77" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U77" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
       <c r="V77" s="36"/>
       <c r="W77" s="36"/>
       <c r="X77" s="36"/>
@@ -6729,7 +6449,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="26">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F78" s="35">
         <v>11.0</v>
@@ -6773,12 +6493,8 @@
       <c r="S78" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T78" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U78" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
       <c r="V78" s="36"/>
       <c r="W78" s="36"/>
       <c r="X78" s="36"/>
@@ -6801,10 +6517,10 @@
         <v>9</v>
       </c>
       <c r="E79" s="26">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F79" s="35">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G79" s="30" t="s">
         <v>21</v>
@@ -6845,12 +6561,8 @@
       <c r="S79" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="T79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U79" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
       <c r="V79" s="36"/>
       <c r="W79" s="36"/>
       <c r="X79" s="36"/>
@@ -6867,11 +6579,11 @@
       <c r="C80" s="34"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37" t="str">
-        <f t="shared" ref="E80:E95" si="2">IF(D80&gt;0,COUNTIF(G80:Z80,"A"),"")</f>
+        <f t="shared" ref="E80:E95" si="3">IF(D80&gt;0,COUNTIF(G80:Z80,"A"),"")</f>
         <v/>
       </c>
       <c r="F80" s="38" t="str">
-        <f t="shared" ref="F80:F95" si="3">IF(D80&gt;0,COUNTIF(G80:Z80,"P"),"")</f>
+        <f t="shared" ref="F80:F95" si="4">IF(D80&gt;0,COUNTIF(G80:Z80,"P"),"")</f>
         <v/>
       </c>
       <c r="G80" s="39"/>
@@ -6905,11 +6617,11 @@
       <c r="C81" s="34"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F81" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G81" s="39"/>
@@ -6943,11 +6655,11 @@
       <c r="C82" s="34"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F82" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G82" s="39"/>
@@ -6981,11 +6693,11 @@
       <c r="C83" s="34"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F83" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G83" s="39"/>
@@ -7019,11 +6731,11 @@
       <c r="C84" s="34"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F84" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G84" s="39"/>
@@ -7057,11 +6769,11 @@
       <c r="C85" s="40"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F85" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G85" s="39"/>
@@ -7095,11 +6807,11 @@
       <c r="C86" s="40"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F86" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G86" s="39"/>
@@ -7133,11 +6845,11 @@
       <c r="C87" s="40"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F87" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G87" s="39"/>
@@ -7171,11 +6883,11 @@
       <c r="C88" s="40"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F88" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G88" s="39"/>
@@ -7209,11 +6921,11 @@
       <c r="C89" s="40"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F89" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G89" s="39"/>
@@ -7247,11 +6959,11 @@
       <c r="C90" s="40"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F90" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G90" s="39"/>
@@ -7285,11 +6997,11 @@
       <c r="C91" s="40"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F91" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G91" s="39"/>
@@ -7323,11 +7035,11 @@
       <c r="C92" s="40"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F92" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G92" s="39"/>
@@ -7361,11 +7073,11 @@
       <c r="C93" s="40"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F93" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G93" s="39"/>
@@ -7399,11 +7111,11 @@
       <c r="C94" s="40"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F94" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G94" s="39"/>
@@ -7437,11 +7149,11 @@
       <c r="C95" s="40"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F95" s="38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G95" s="39"/>
